--- a/Syllabus Tracker.xlsx
+++ b/Syllabus Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D03F6C-4F97-42AE-BA46-9509B0B20055}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AD5BD7-8EE5-430A-BBD3-2DAE0224223D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,10 +11,16 @@
     <sheet name="PCEP Syllabus" sheetId="1" r:id="rId1"/>
     <sheet name="Syllabus Status" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -428,36 +434,36 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -525,76 +531,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -883,7 +819,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,556 +832,556 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="19"/>
+        <v>52</v>
+      </c>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="19"/>
+        <v>52</v>
+      </c>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="19"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="17"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="19"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="19"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="19"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="19"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="19"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="19"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="19"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="19"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="19"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="19"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="19"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="17"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="19"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="19"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="19"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="19"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="19"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="19"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="19"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="19"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="17"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="19"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="17"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="19"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="19"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="19"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="19"/>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="19"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="17"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="19"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="19"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="19"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="17"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="19"/>
+      <c r="E39" s="13"/>
     </row>
     <row r="40" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="17"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="19"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="17"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="19"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="21"/>
       <c r="D42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="19"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="C43" s="21"/>
       <c r="D43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="19"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="17"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="19"/>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="17"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="19"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="17"/>
+      <c r="C46" s="21"/>
       <c r="D46" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E46" s="19"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="17"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="19"/>
+      <c r="E47" s="13"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E48" s="19"/>
+      <c r="E48" s="13"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="17"/>
+      <c r="C49" s="21"/>
       <c r="D49" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="19"/>
+      <c r="E49" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C2:C49"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A22"/>
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="A32:A39"/>
     <mergeCell ref="A40:A49"/>
-    <mergeCell ref="C2:C49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
